--- a/TraysFastUpdate/wwwroot/Cables.xlsx
+++ b/TraysFastUpdate/wwwroot/Cables.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cables" sheetId="1" r:id="R4efde6d869554e75"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cables" sheetId="1" r:id="Rbfa3aba9c626468b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -52757,7 +52757,7 @@
     </x:row>
   </x:sheetData>
   <x:tableParts>
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4d4afa050f304163"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R529594c764f942d6"/>
   </x:tableParts>
 </x:worksheet>
 </file>